--- a/ResultadoEleicoesDistritos/LISBOA_ODIVELAS.xlsx
+++ b/ResultadoEleicoesDistritos/LISBOA_ODIVELAS.xlsx
@@ -597,64 +597,64 @@
         <v>37747</v>
       </c>
       <c r="H2" t="n">
-        <v>1477</v>
+        <v>1395</v>
       </c>
       <c r="I2" t="n">
-        <v>3710</v>
+        <v>3824</v>
       </c>
       <c r="J2" t="n">
-        <v>15554</v>
+        <v>15512</v>
       </c>
       <c r="K2" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L2" t="n">
-        <v>4312</v>
+        <v>4327</v>
       </c>
       <c r="M2" t="n">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="N2" t="n">
-        <v>2724</v>
+        <v>2684</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="Q2" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="S2" t="n">
-        <v>1633</v>
+        <v>1703</v>
       </c>
       <c r="T2" t="n">
-        <v>2728</v>
+        <v>2749</v>
       </c>
       <c r="U2" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="V2" t="n">
-        <v>24087</v>
+        <v>24247</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>24212</v>
+        <v>23948</v>
       </c>
       <c r="Y2" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Z2" t="n">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="AA2" t="n">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
